--- a/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_2/Expr_2.xlsx
+++ b/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_2/Expr_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Poisson/Expr2d_1_6/Seed_Scale_Expr1_6_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE22D23C-28A2-E14B-B92A-50D174E9A7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3D183E-96F2-A545-AA4A-E8CE87413173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-49860" yWindow="2440" windowWidth="39060" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -747,7 +747,7 @@
         <v>31</v>
       </c>
       <c r="S2" s="12">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="T2" t="s">
         <v>10</v>
